--- a/phonebook.local/share/actual.xlsx
+++ b/phonebook.local/share/actual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,12 @@
     <t>Леонидович</t>
   </si>
   <si>
-    <t>42-78</t>
-  </si>
-  <si>
     <t>Отдел торгов</t>
   </si>
   <si>
     <t>85-34</t>
   </si>
   <si>
-    <t>Отдел херовых отношений</t>
-  </si>
-  <si>
     <t>42-23</t>
   </si>
   <si>
@@ -994,6 +988,12 @@
   </si>
   <si>
     <t>42-86</t>
+  </si>
+  <si>
+    <t>Отдел торговых отношений</t>
+  </si>
+  <si>
+    <t>41-79</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,30 +1349,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>9510</v>
+        <v>9314</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="G2" s="1">
         <v>89991234567</v>
@@ -1398,19 +1398,19 @@
         <v>9080</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G3" s="1">
         <v>89991234587</v>
@@ -1421,19 +1421,19 @@
         <v>7834</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1">
         <v>89991234607</v>
@@ -1444,19 +1444,19 @@
         <v>2342</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>89991234627</v>
@@ -1467,19 +1467,19 @@
         <v>3456</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>89991234647</v>
@@ -1490,19 +1490,19 @@
         <v>5345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>89991234667</v>
@@ -1513,19 +1513,19 @@
         <v>4324</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>89991234687</v>
@@ -1536,19 +1536,19 @@
         <v>8825</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1">
         <v>89991234707</v>
@@ -1559,19 +1559,19 @@
         <v>5437</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1">
         <v>89991234727</v>
@@ -1582,19 +1582,19 @@
         <v>4527</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1">
         <v>89991234747</v>
@@ -1605,19 +1605,19 @@
         <v>8547</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1">
         <v>89991234767</v>
@@ -1628,19 +1628,19 @@
         <v>4532</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1">
         <v>89991234787</v>
@@ -1651,19 +1651,19 @@
         <v>2347</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1">
         <v>89991234807</v>
@@ -1674,19 +1674,19 @@
         <v>2346</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>89991234827</v>
@@ -1697,19 +1697,19 @@
         <v>7892</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1">
         <v>89991234847</v>
@@ -1723,16 +1723,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1">
         <v>89991234867</v>
@@ -1743,19 +1743,19 @@
         <v>5600</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1">
         <v>89991234887</v>
@@ -1766,19 +1766,19 @@
         <v>4913</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1">
         <v>89991234907</v>
@@ -1789,19 +1789,19 @@
         <v>4629</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1">
         <v>89991234927</v>
@@ -1812,19 +1812,19 @@
         <v>5646</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1">
         <v>89991234947</v>
@@ -1835,19 +1835,19 @@
         <v>3960</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1">
         <v>89991234967</v>
@@ -1858,19 +1858,19 @@
         <v>2115</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1">
         <v>89991234987</v>
@@ -1881,19 +1881,19 @@
         <v>3470</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1">
         <v>89991235007</v>
@@ -1904,19 +1904,19 @@
         <v>6050</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1">
         <v>89991235027</v>
@@ -1927,19 +1927,19 @@
         <v>9182</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1">
         <v>89991235047</v>
@@ -1950,19 +1950,19 @@
         <v>4640</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G27" s="1">
         <v>89991235067</v>
@@ -1973,19 +1973,19 @@
         <v>6181</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G28" s="1">
         <v>89991235087</v>
@@ -1996,19 +1996,19 @@
         <v>6334</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G29" s="1">
         <v>89991235107</v>
@@ -2019,19 +2019,19 @@
         <v>2933</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G30" s="1">
         <v>89991235127</v>
@@ -2042,19 +2042,19 @@
         <v>1074</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G31" s="1">
         <v>89991235147</v>
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1">
         <v>89991235167</v>
@@ -2088,19 +2088,19 @@
         <v>9890</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33" s="1">
         <v>89991235187</v>
@@ -2111,19 +2111,19 @@
         <v>9230</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" s="1">
         <v>89991235207</v>
@@ -2134,19 +2134,19 @@
         <v>2613</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1">
         <v>89991235227</v>
@@ -2157,19 +2157,19 @@
         <v>9049</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" s="1">
         <v>89991235247</v>
@@ -2180,19 +2180,19 @@
         <v>1017</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G37" s="1">
         <v>89991235267</v>
@@ -2203,19 +2203,19 @@
         <v>5258</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G38" s="1">
         <v>89991235287</v>
@@ -2226,19 +2226,19 @@
         <v>5178</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G39" s="1">
         <v>89991235307</v>
@@ -2249,19 +2249,19 @@
         <v>9635</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G40" s="1">
         <v>89991235327</v>
@@ -2272,19 +2272,19 @@
         <v>1459</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G41" s="1">
         <v>89991235347</v>
@@ -2295,19 +2295,19 @@
         <v>8524</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G42" s="1">
         <v>89991235367</v>
@@ -2318,19 +2318,19 @@
         <v>2161</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G43" s="1">
         <v>89991235387</v>
@@ -2341,19 +2341,19 @@
         <v>9640</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G44" s="1">
         <v>89991235407</v>
@@ -2364,19 +2364,19 @@
         <v>9866</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G45" s="1">
         <v>89991235427</v>
@@ -2387,19 +2387,19 @@
         <v>6446</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G46" s="1">
         <v>89991235447</v>
@@ -2413,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G47" s="1">
         <v>89991235467</v>
@@ -2433,19 +2433,19 @@
         <v>6330</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G48" s="1">
         <v>89991235487</v>
@@ -2456,19 +2456,19 @@
         <v>4554</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G49" s="1">
         <v>89991235507</v>
@@ -2479,19 +2479,19 @@
         <v>7011</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G50" s="1">
         <v>89991235527</v>
@@ -2502,19 +2502,19 @@
         <v>8420</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G51" s="1">
         <v>89991235547</v>
@@ -2525,19 +2525,19 @@
         <v>5869</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G52" s="1">
         <v>89991235567</v>
@@ -2548,19 +2548,19 @@
         <v>6624</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G53" s="1">
         <v>89991235587</v>
@@ -2571,19 +2571,19 @@
         <v>1825</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G54" s="1">
         <v>89991235607</v>
@@ -2594,19 +2594,19 @@
         <v>7639</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G55" s="1">
         <v>89991235627</v>
@@ -2617,19 +2617,19 @@
         <v>4759</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G56" s="1">
         <v>89991235647</v>
@@ -2640,19 +2640,19 @@
         <v>8956</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G57" s="1">
         <v>89991235667</v>
@@ -2663,19 +2663,19 @@
         <v>3170</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G58" s="1">
         <v>89991235687</v>
@@ -2686,19 +2686,19 @@
         <v>1187</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G59" s="1">
         <v>89991235707</v>
@@ -2709,19 +2709,19 @@
         <v>7296</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G60" s="1">
         <v>89991235727</v>
@@ -2732,19 +2732,19 @@
         <v>3233</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G61" s="1">
         <v>89991235747</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G62" s="1">
         <v>89991235767</v>
@@ -2778,19 +2778,19 @@
         <v>2987</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G63" s="1">
         <v>89991235787</v>
@@ -2801,19 +2801,19 @@
         <v>4970</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G64" s="1">
         <v>89991235807</v>
@@ -2824,19 +2824,19 @@
         <v>8424</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G65" s="1">
         <v>89991235827</v>
@@ -2847,19 +2847,19 @@
         <v>6257</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G66" s="1">
         <v>89991235847</v>
@@ -2870,19 +2870,19 @@
         <v>8084</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G67" s="1">
         <v>89991235867</v>
@@ -2893,19 +2893,19 @@
         <v>3556</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G68" s="1">
         <v>89991235887</v>
@@ -2916,19 +2916,19 @@
         <v>5334</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G69" s="1">
         <v>89991235907</v>
@@ -2939,19 +2939,19 @@
         <v>8650</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G70" s="1">
         <v>89991235927</v>
@@ -2962,19 +2962,19 @@
         <v>9651</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G71" s="1">
         <v>89991235947</v>
@@ -2985,19 +2985,19 @@
         <v>3905</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G72" s="1">
         <v>89991235967</v>
@@ -3008,19 +3008,19 @@
         <v>9617</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G73" s="1">
         <v>89991235987</v>
@@ -3031,19 +3031,19 @@
         <v>6393</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G74" s="1">
         <v>89991236007</v>
@@ -3054,19 +3054,19 @@
         <v>3837</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G75" s="1">
         <v>89991236027</v>
@@ -3077,19 +3077,19 @@
         <v>5427</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G76" s="1">
         <v>89991236047</v>
@@ -3103,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G77" s="1">
         <v>89991236067</v>
@@ -3123,19 +3123,19 @@
         <v>1749</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G78" s="1">
         <v>89991236087</v>
@@ -3146,19 +3146,19 @@
         <v>7588</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G79" s="1">
         <v>89991236107</v>
@@ -3169,19 +3169,19 @@
         <v>4585</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G80" s="1">
         <v>89991236127</v>
@@ -3192,19 +3192,19 @@
         <v>7152</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G81" s="1">
         <v>89991236147</v>
@@ -3215,19 +3215,19 @@
         <v>4107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G82" s="1">
         <v>89991236167</v>
@@ -3238,19 +3238,19 @@
         <v>6291</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G83" s="1">
         <v>89991236187</v>
@@ -3261,19 +3261,19 @@
         <v>3002</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G84" s="1">
         <v>89991236207</v>
@@ -3284,19 +3284,19 @@
         <v>2192</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G85" s="1">
         <v>89991236227</v>
@@ -3307,19 +3307,19 @@
         <v>5283</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G86" s="1">
         <v>89991236247</v>
@@ -3330,19 +3330,19 @@
         <v>5385</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G87" s="1">
         <v>89991236267</v>
@@ -3353,19 +3353,19 @@
         <v>1279</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G88" s="1">
         <v>89991236287</v>
@@ -3376,19 +3376,19 @@
         <v>7392</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G89" s="1">
         <v>89991236307</v>
@@ -3399,19 +3399,19 @@
         <v>9829</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="F90" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G90" s="1">
         <v>89991236327</v>
@@ -3422,19 +3422,19 @@
         <v>5630</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G91" s="1">
         <v>89991236347</v>
@@ -3448,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G92" s="1">
         <v>89991236367</v>
@@ -3468,19 +3468,19 @@
         <v>4792</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="F93" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G93" s="1">
         <v>89991236387</v>
@@ -3491,19 +3491,19 @@
         <v>5422</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G94" s="1">
         <v>89991236407</v>
@@ -3514,19 +3514,19 @@
         <v>7189</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G95" s="1">
         <v>89991236427</v>
@@ -3537,19 +3537,19 @@
         <v>3958</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G96" s="1">
         <v>89991236447</v>
@@ -3560,19 +3560,19 @@
         <v>8912</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G97" s="1">
         <v>89991236467</v>
@@ -3583,19 +3583,19 @@
         <v>7113</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G98" s="1">
         <v>89991236487</v>
@@ -3606,19 +3606,19 @@
         <v>5426</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G99" s="1">
         <v>89991236507</v>
@@ -3629,19 +3629,19 @@
         <v>9158</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G100" s="1">
         <v>89991236527</v>
@@ -3652,19 +3652,19 @@
         <v>4763</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="F101" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G101" s="1">
         <v>89991236547</v>
@@ -3675,19 +3675,19 @@
         <v>4234</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G102" s="1">
         <v>89991236567</v>

--- a/phonebook.local/share/actual.xlsx
+++ b/phonebook.local/share/actual.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="phones" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="433">
   <si>
     <t>Отдел ИТ</t>
   </si>
@@ -33,12 +33,18 @@
     <t>Леонидович</t>
   </si>
   <si>
+    <t>42-78</t>
+  </si>
+  <si>
     <t>Отдел торгов</t>
   </si>
   <si>
     <t>85-34</t>
   </si>
   <si>
+    <t>Отдел херовых отношений</t>
+  </si>
+  <si>
     <t>42-23</t>
   </si>
   <si>
@@ -990,10 +996,328 @@
     <t>42-86</t>
   </si>
   <si>
-    <t>Отдел торговых отношений</t>
-  </si>
-  <si>
-    <t>41-79</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Алоха</t>
+  </si>
+  <si>
+    <t>Серетарь</t>
+  </si>
+  <si>
+    <t>Расходник</t>
+  </si>
+  <si>
+    <t>Раб</t>
+  </si>
+  <si>
+    <t>Босс</t>
+  </si>
+  <si>
+    <t>Phone_3</t>
+  </si>
+  <si>
+    <t>Phone_4</t>
+  </si>
+  <si>
+    <t>(495)958-8217</t>
+  </si>
+  <si>
+    <t>(495)464-7129</t>
+  </si>
+  <si>
+    <t>(495)513-7141</t>
+  </si>
+  <si>
+    <t>(495)548-3320</t>
+  </si>
+  <si>
+    <t>(495)891-1090</t>
+  </si>
+  <si>
+    <t>(495)542-7624</t>
+  </si>
+  <si>
+    <t>(495)489-5211</t>
+  </si>
+  <si>
+    <t>(495)601-9322</t>
+  </si>
+  <si>
+    <t>(495)143-2337</t>
+  </si>
+  <si>
+    <t>(495)706-4216</t>
+  </si>
+  <si>
+    <t>(495)962-2840</t>
+  </si>
+  <si>
+    <t>(495)524-8470</t>
+  </si>
+  <si>
+    <t>(495)137-5654</t>
+  </si>
+  <si>
+    <t>(495)518-8355</t>
+  </si>
+  <si>
+    <t>(495)185-0265</t>
+  </si>
+  <si>
+    <t>(495)896-2768</t>
+  </si>
+  <si>
+    <t>(495)064-7191</t>
+  </si>
+  <si>
+    <t>(495)104-4507</t>
+  </si>
+  <si>
+    <t>(495)837-1929</t>
+  </si>
+  <si>
+    <t>(495)250-9288</t>
+  </si>
+  <si>
+    <t>(495)520-6113</t>
+  </si>
+  <si>
+    <t>(495)187-7854</t>
+  </si>
+  <si>
+    <t>(495)818-7475</t>
+  </si>
+  <si>
+    <t>(495)366-6549</t>
+  </si>
+  <si>
+    <t>(495)796-9101</t>
+  </si>
+  <si>
+    <t>(495)890-7453</t>
+  </si>
+  <si>
+    <t>(495)710-1968</t>
+  </si>
+  <si>
+    <t>(495)258-8088</t>
+  </si>
+  <si>
+    <t>(495)746-9483</t>
+  </si>
+  <si>
+    <t>(495)730-2845</t>
+  </si>
+  <si>
+    <t>(495)657-5268</t>
+  </si>
+  <si>
+    <t>(495)163-2519</t>
+  </si>
+  <si>
+    <t>(495)662-1454</t>
+  </si>
+  <si>
+    <t>(495)954-7993</t>
+  </si>
+  <si>
+    <t>(495)511-8793</t>
+  </si>
+  <si>
+    <t>(495)671-1914</t>
+  </si>
+  <si>
+    <t>(495)766-2115</t>
+  </si>
+  <si>
+    <t>(495)698-6921</t>
+  </si>
+  <si>
+    <t>(495)323-1271</t>
+  </si>
+  <si>
+    <t>(495)520-4440</t>
+  </si>
+  <si>
+    <t>(495)074-2993</t>
+  </si>
+  <si>
+    <t>(495)921-9435</t>
+  </si>
+  <si>
+    <t>(495)699-8716</t>
+  </si>
+  <si>
+    <t>(495)377-8170</t>
+  </si>
+  <si>
+    <t>(495)554-4580</t>
+  </si>
+  <si>
+    <t>(495)114-5594</t>
+  </si>
+  <si>
+    <t>(495)840-5578</t>
+  </si>
+  <si>
+    <t>(495)457-5387</t>
+  </si>
+  <si>
+    <t>(495)322-8123</t>
+  </si>
+  <si>
+    <t>(495)478-0721</t>
+  </si>
+  <si>
+    <t>(495)711-2892</t>
+  </si>
+  <si>
+    <t>(495)498-7855</t>
+  </si>
+  <si>
+    <t>(495)880-9132</t>
+  </si>
+  <si>
+    <t>(495)106-8374</t>
+  </si>
+  <si>
+    <t>(495)953-8551</t>
+  </si>
+  <si>
+    <t>(495)497-3534</t>
+  </si>
+  <si>
+    <t>(495)154-3969</t>
+  </si>
+  <si>
+    <t>(495)659-0340</t>
+  </si>
+  <si>
+    <t>(495)031-5835</t>
+  </si>
+  <si>
+    <t>(495)226-8512</t>
+  </si>
+  <si>
+    <t>(495)660-5396</t>
+  </si>
+  <si>
+    <t>(495)560-8001</t>
+  </si>
+  <si>
+    <t>(495)436-3616</t>
+  </si>
+  <si>
+    <t>(495)337-9507</t>
+  </si>
+  <si>
+    <t>(495)778-0740</t>
+  </si>
+  <si>
+    <t>(495)101-2133</t>
+  </si>
+  <si>
+    <t>(495)698-3152</t>
+  </si>
+  <si>
+    <t>(495)804-4016</t>
+  </si>
+  <si>
+    <t>(495)947-7870</t>
+  </si>
+  <si>
+    <t>(495)822-9555</t>
+  </si>
+  <si>
+    <t>(495)436-5880</t>
+  </si>
+  <si>
+    <t>(495)851-8676</t>
+  </si>
+  <si>
+    <t>(495)233-1131</t>
+  </si>
+  <si>
+    <t>(495)539-1844</t>
+  </si>
+  <si>
+    <t>(495)809-7894</t>
+  </si>
+  <si>
+    <t>(495)566-1427</t>
+  </si>
+  <si>
+    <t>(495)607-7487</t>
+  </si>
+  <si>
+    <t>(495)271-0154</t>
+  </si>
+  <si>
+    <t>(495)536-4311</t>
+  </si>
+  <si>
+    <t>(495)770-2078</t>
+  </si>
+  <si>
+    <t>(495)863-3513</t>
+  </si>
+  <si>
+    <t>(495)848-0929</t>
+  </si>
+  <si>
+    <t>(495)560-9817</t>
+  </si>
+  <si>
+    <t>(495)978-9575</t>
+  </si>
+  <si>
+    <t>(495)397-8006</t>
+  </si>
+  <si>
+    <t>(495)449-4690</t>
+  </si>
+  <si>
+    <t>(495)500-3289</t>
+  </si>
+  <si>
+    <t>(495)582-1585</t>
+  </si>
+  <si>
+    <t>(495)737-8337</t>
+  </si>
+  <si>
+    <t>(495)773-4646</t>
+  </si>
+  <si>
+    <t>(495)466-7569</t>
+  </si>
+  <si>
+    <t>(495)412-0089</t>
+  </si>
+  <si>
+    <t>(495)276-6144</t>
+  </si>
+  <si>
+    <t>(495)183-8290</t>
+  </si>
+  <si>
+    <t>(495)674-1342</t>
+  </si>
+  <si>
+    <t>(495)657-6374</t>
+  </si>
+  <si>
+    <t>(495)402-5564</t>
+  </si>
+  <si>
+    <t>(495)585-7754</t>
+  </si>
+  <si>
+    <t>(495)295-6373</t>
+  </si>
+  <si>
+    <t>(495)216-6802</t>
   </si>
 </sst>
 </file>
@@ -1329,2368 +1653,3287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>9314</v>
+        <v>9510</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="1">
-        <v>89991234567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9080</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>89991234587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7834</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>89991234607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2342</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1">
-        <v>89991234627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3456</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>89991234647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1">
-        <v>89991234667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4324</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1">
-        <v>89991234687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8825</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1">
-        <v>89991234707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5437</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1">
-        <v>89991234727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4527</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1">
-        <v>89991234747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8547</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1">
-        <v>89991234767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4532</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1">
-        <v>89991234787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2347</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1">
-        <v>89991234807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2346</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1">
-        <v>89991234827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7892</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="1">
-        <v>89991234847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4099</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
+      <c r="C17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1">
-        <v>89991234867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5600</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1">
-        <v>89991234887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4913</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1">
-        <v>89991234907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4629</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1">
-        <v>89991234927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5646</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1">
-        <v>89991234947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3960</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="1">
-        <v>89991234967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2115</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1">
-        <v>89991234987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3470</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="1">
-        <v>89991235007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6050</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1">
-        <v>89991235027</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9182</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="1">
-        <v>89991235047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4640</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G27" s="1">
-        <v>89991235067</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6181</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" s="1">
-        <v>89991235087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6334</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G29" s="1">
-        <v>89991235107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2933</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" s="1">
-        <v>89991235127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1074</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" s="1">
-        <v>89991235147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2887</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>123</v>
+      <c r="C32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="1">
-        <v>89991235167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>9890</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="1">
-        <v>89991235187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9230</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>128</v>
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="1">
-        <v>89991235207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2613</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>131</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="1">
-        <v>89991235227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9049</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="1">
-        <v>89991235247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1017</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G37" s="1">
-        <v>89991235267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5258</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>140</v>
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G38" s="1">
-        <v>89991235287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5178</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G39" s="1">
-        <v>89991235307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9635</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G40" s="1">
-        <v>89991235327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1459</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G41" s="1">
-        <v>89991235347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>8524</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G42" s="1">
-        <v>89991235367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2161</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>153</v>
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G43" s="1">
-        <v>89991235387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9640</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G44" s="1">
-        <v>89991235407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>9866</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G45" s="1">
-        <v>89991235427</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>6446</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>159</v>
+        <v>20</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G46" s="1">
-        <v>89991235447</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3561</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>161</v>
+      <c r="C47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G47" s="1">
-        <v>89991235467</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>6330</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G48" s="1">
-        <v>89991235487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4554</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G49" s="1">
-        <v>89991235507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7011</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>169</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G50" s="1">
-        <v>89991235527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>8420</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>172</v>
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" s="1">
-        <v>89991235547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>5869</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>175</v>
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G52" s="1">
-        <v>89991235567</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>6624</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>177</v>
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G53" s="1">
-        <v>89991235587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1825</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>179</v>
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" s="1">
-        <v>89991235607</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7639</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G55" s="1">
-        <v>89991235627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>4759</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>184</v>
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G56" s="1">
-        <v>89991235647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>8956</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>187</v>
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G57" s="1">
-        <v>89991235667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3170</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>190</v>
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G58" s="1">
-        <v>89991235687</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1187</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="1">
-        <v>89991235707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>7296</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>195</v>
+        <v>19</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G60" s="1">
-        <v>89991235727</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3233</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>198</v>
+        <v>20</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G61" s="1">
-        <v>89991235747</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1310</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>200</v>
+      <c r="C62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G62" s="1">
-        <v>89991235767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2987</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G63" s="1">
-        <v>89991235787</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>4970</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>205</v>
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G64" s="1">
-        <v>89991235807</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>8424</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G65" s="1">
-        <v>89991235827</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>6257</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>210</v>
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G66" s="1">
-        <v>89991235847</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>8084</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>213</v>
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G67" s="1">
-        <v>89991235867</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>3556</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G68" s="1">
-        <v>89991235887</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5334</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>219</v>
+        <v>13</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G69" s="1">
-        <v>89991235907</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>8650</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>221</v>
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G70" s="1">
-        <v>89991235927</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9651</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>224</v>
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G71" s="1">
-        <v>89991235947</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3905</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>227</v>
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G72" s="1">
-        <v>89991235967</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9617</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>230</v>
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G73" s="1">
-        <v>89991235987</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>6393</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>233</v>
+        <v>18</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G74" s="1">
-        <v>89991236007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>3837</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>233</v>
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G75" s="1">
-        <v>89991236027</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>5427</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>236</v>
+        <v>20</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G76" s="1">
-        <v>89991236047</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>5313</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>238</v>
+      <c r="C77" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G77" s="1">
-        <v>89991236067</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1749</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>240</v>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G78" s="1">
-        <v>89991236087</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>7588</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>243</v>
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G79" s="1">
-        <v>89991236107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>4585</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>245</v>
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G80" s="1">
-        <v>89991236127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>7152</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>247</v>
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G81" s="1">
-        <v>89991236147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>250</v>
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G82" s="1">
-        <v>89991236167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>6291</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>253</v>
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G83" s="1">
-        <v>89991236187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>3002</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>256</v>
+        <v>13</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G84" s="1">
-        <v>89991236207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2192</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>258</v>
+        <v>14</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G85" s="1">
-        <v>89991236227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5283</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>260</v>
+        <v>15</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G86" s="1">
-        <v>89991236247</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>5385</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G87" s="1">
-        <v>89991236267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1279</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>263</v>
+        <v>17</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G88" s="1">
-        <v>89991236287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>7392</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>266</v>
+        <v>18</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G89" s="1">
-        <v>89991236307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>9829</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>269</v>
+        <v>19</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G90" s="1">
-        <v>89991236327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>5630</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>272</v>
+        <v>20</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G91" s="1">
-        <v>89991236347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3414</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>274</v>
+      <c r="C92" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G92" s="1">
-        <v>89991236367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>4792</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>276</v>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G93" s="1">
-        <v>89991236387</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>5422</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>134</v>
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G94" s="1">
-        <v>89991236407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>7189</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>280</v>
+        <v>9</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G95" s="1">
-        <v>89991236427</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3958</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>282</v>
+        <v>10</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G96" s="1">
-        <v>89991236447</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>8912</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>285</v>
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G97" s="1">
-        <v>89991236467</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>7113</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>287</v>
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G98" s="1">
-        <v>89991236487</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>5426</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>253</v>
+        <v>13</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G99" s="1">
-        <v>89991236507</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>9158</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>291</v>
+        <v>14</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G100" s="1">
-        <v>89991236527</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>4763</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>293</v>
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G101" s="1">
-        <v>89991236547</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>4234</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>140</v>
+        <v>16</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G102" s="1">
-        <v>89991236567</v>
+        <v>298</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I102" s="1">
+        <v>9991236567</v>
+      </c>
+      <c r="J102" s="1">
+        <v>9991236567</v>
       </c>
     </row>
   </sheetData>
